--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/55_Malatya_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/55_Malatya_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DF62BB-363A-4D29-8EF5-69D707798CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80E884E-FC86-4D92-B36E-CF01C1B78C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{E558765A-29B9-4F07-8B29-6110B9D70047}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{B3174B6F-2146-4263-8E63-9C93FEAE17E8}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -797,14 +797,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2428588B-D7B4-45A6-BDF5-9220470C96FC}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{43D9DF0F-AD65-448A-994A-82296AD566AA}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{1636F58B-8B64-4A99-A4F8-CED311AFB222}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{E3550078-DE65-44B9-B009-C9FC57B2FD84}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B69135EB-2F38-48A5-A731-115039D96013}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B4EA051A-5D39-4324-8305-EAD3F789ADB4}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B6EBB181-F484-4A86-9960-D67ADD25CE14}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{80AABCD0-0A2D-4811-958F-67F8189E4E88}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7A3AFD4B-6AFB-4669-AB55-D4B49EAAD871}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E2B51877-D391-42A2-8EB0-8B36AFDB6CED}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{F051C75B-B755-427B-A8D4-DE07CB38DED9}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{08C69224-0A9A-461D-AFA2-4D92BB9208DD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{ACA7655C-60A4-45D6-B60A-D007D2B01B1D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9A536B96-00E2-431A-B80D-2B336643C134}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{20D6D86F-AD3B-4F54-80C2-C1959E3E1906}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{679C8D94-8A4E-4846-B30C-06E7D4AA7A38}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F429B1B5-755D-4F16-B200-2935934DFE8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFFC5B0-EEEE-4BA0-B34C-37D0497C1D16}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2433,7 +2433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8F629D-2E01-4C44-A650-6A4575660F8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCCAD2A-4A53-491F-A3C7-FE48F24C7A98}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3690,7 +3690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C394A0D-3AA6-450F-850D-878769533090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EF2236-819F-4EB4-8D44-F86A1A91D50B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4949,7 +4949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CFFFEF-AD23-4D19-BEC5-979F9539572A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FBC2CC-F575-4C69-BF11-1C221C1DFFA5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6214,7 +6214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC3A3A2-9D58-4353-9355-C36940184BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46EC52C-1309-40F0-B4AF-5AF2D1F5BE87}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7465,7 +7465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA6A879-33AC-4331-A8B9-B2DEB9B9A725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C710EC0-AE8C-4A17-B1F3-4D4C21E5D08F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
